--- a/Labs/Lab1_8Puzzle_Search/code/output/performance_table.xlsx
+++ b/Labs/Lab1_8Puzzle_Search/code/output/performance_table.xlsx
@@ -554,31 +554,31 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005208806550000012</v>
+        <v>0.002952116099999991</v>
       </c>
       <c r="D4" t="n">
         <v>134.6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003763461950074998</v>
+        <v>0.002668552749764785</v>
       </c>
       <c r="F4" t="n">
         <v>288.45</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0006542811501276446</v>
+        <v>0.0003108026998233981</v>
       </c>
       <c r="H4" t="n">
         <v>26.3</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0005012657001316256</v>
+        <v>0.0003950914999222732</v>
       </c>
       <c r="J4" t="n">
         <v>23.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0006419684000320558</v>
+        <v>0.0004421988500325824</v>
       </c>
       <c r="L4" t="n">
         <v>23.5</v>
@@ -592,31 +592,31 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>2.456299875449999</v>
+        <v>1.82827346665</v>
       </c>
       <c r="D5" t="n">
         <v>4265.1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1500494177499604</v>
+        <v>0.1064960198501467</v>
       </c>
       <c r="F5" t="n">
         <v>8832.35</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04646219490014118</v>
+        <v>0.02183398130027854</v>
       </c>
       <c r="H5" t="n">
         <v>458.1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009860792949712049</v>
+        <v>0.006775614700291044</v>
       </c>
       <c r="J5" t="n">
         <v>193.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009932489000220812</v>
+        <v>0.007240859600005933</v>
       </c>
       <c r="L5" t="n">
         <v>193.35</v>
@@ -630,31 +630,31 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>565.81081045615</v>
+        <v>533.77745741275</v>
       </c>
       <c r="D6" t="n">
         <v>107117.7</v>
       </c>
       <c r="E6" t="n">
-        <v>6.193369185400025</v>
+        <v>4.813484538749981</v>
       </c>
       <c r="F6" t="n">
         <v>295687.1</v>
       </c>
       <c r="G6" t="n">
-        <v>62.00525144584981</v>
+        <v>40.20095129425008</v>
       </c>
       <c r="H6" t="n">
         <v>19485.35</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5121588289500323</v>
+        <v>0.5260805987999447</v>
       </c>
       <c r="J6" t="n">
         <v>2268.75</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5360880474497207</v>
+        <v>0.5602496890500334</v>
       </c>
       <c r="L6" t="n">
         <v>2268.75</v>
